--- a/Inputfile.xlsx
+++ b/Inputfile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>Account Number</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>NOR</t>
+  </si>
+  <si>
+    <t>09-08-2022</t>
   </si>
   <si>
     <t>1100409900110499</t>
@@ -198,14 +201,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,77 +223,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,22 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -326,9 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,6 +344,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -349,23 +360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,187 +376,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +567,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,68 +637,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,52 +658,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,103 +721,104 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -834,13 +831,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1" quotePrefix="1">
@@ -1168,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1177,363 +1177,359 @@
     <col min="1" max="1" width="17.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="6" max="6" width="24.2857142857143" customWidth="1"/>
-    <col min="18" max="18" width="11.2857142857143" customWidth="1"/>
-    <col min="19" max="19" width="11.1428571428571" customWidth="1"/>
+    <col min="18" max="18" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>990</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>500</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="7">
-        <f ca="1">TODAY()</f>
-        <v>44782</v>
-      </c>
-      <c r="S2" s="7">
-        <f ca="1">TODAY()</f>
-        <v>44782</v>
-      </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
     </row>
     <row r="3" spans="1:51">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5">
+        <v>990</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="6">
+        <v>500</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="4">
-        <v>990</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="5">
-        <v>500</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="7">
-        <f ca="1">TODAY()</f>
-        <v>44782</v>
-      </c>
-      <c r="S3" s="7">
-        <f ca="1">TODAY()</f>
-        <v>44782</v>
-      </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
+      <c r="S3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
     </row>
     <row r="4" spans="1:51">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
